--- a/Data/Upah Minimum Regional_Propinsi, 2019-2020.xlsx
+++ b/Data/Upah Minimum Regional_Propinsi, 2019-2020.xlsx
@@ -1,41 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinr\Documents\Python_Project-3_Minimum Wage\Python_Project-3_Minimum-Wage\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2882D7-2858-4725-852D-5AC627A0B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <t>38 Provinsi</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEP. BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEP. RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT DAYA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>PAPUA SELATAN</t>
+  </si>
+  <si>
+    <t>PAPUA TENGAH</t>
+  </si>
+  <si>
+    <t>PAPUA PEGUNUNGAN</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +178,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,466 +519,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>38 Provinsi</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>Upah Minimum Regional/Propinsi (Rupiah)</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2916810</v>
+      </c>
+      <c r="C2">
+        <v>3165031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>2019</v>
+        <v>2303403</v>
       </c>
       <c r="C3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ACEH</v>
+        <v>2499423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2916810</v>
+        <v>2289220</v>
       </c>
       <c r="C4">
-        <v>3165031</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SUMATERA UTARA</v>
+        <v>2484041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2303403</v>
+        <v>2662026</v>
       </c>
       <c r="C5">
-        <v>2499423</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SUMATERA BARAT</v>
+        <v>2888564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2289220</v>
+        <v>2423889</v>
       </c>
       <c r="C6">
-        <v>2484041</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>RIAU</v>
+        <v>2630162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2662026</v>
+        <v>2804453</v>
       </c>
       <c r="C7">
-        <v>2888564</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>JAMBI</v>
+        <v>3043111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2423889</v>
+        <v>2040407</v>
       </c>
       <c r="C8">
-        <v>2630162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SUMATERA SELATAN</v>
+        <v>2213604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2804453</v>
+        <v>2241270</v>
       </c>
       <c r="C9">
-        <v>3043111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>BENGKULU</v>
+        <v>2432002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2040407</v>
+        <v>2976706</v>
       </c>
       <c r="C10">
-        <v>2213604</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>LAMPUNG</v>
+        <v>3230024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2241270</v>
+        <v>2769754</v>
       </c>
       <c r="C11">
-        <v>2432002</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>KEP. BANGKA BELITUNG</v>
+        <v>3005460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2976706</v>
+        <v>3940973</v>
       </c>
       <c r="C12">
-        <v>3230024</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>KEP. RIAU</v>
+        <v>4276350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2769754</v>
+        <v>1668373</v>
       </c>
       <c r="C13">
-        <v>3005460</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>DKI JAKARTA</v>
+        <v>1810351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3940973</v>
+        <v>1605396</v>
       </c>
       <c r="C14">
-        <v>4276350</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>JAWA BARAT</v>
+        <v>1742015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1668373</v>
+        <v>1570923</v>
       </c>
       <c r="C15">
-        <v>1810351</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>JAWA TENGAH</v>
+        <v>1704608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1605396</v>
+        <v>1630059</v>
       </c>
       <c r="C16">
-        <v>1742015</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>DI YOGYAKARTA</v>
+        <v>1768777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1570923</v>
+        <v>2267990</v>
       </c>
       <c r="C17">
-        <v>1704608</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>JAWA TIMUR</v>
+        <v>2460997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1630059</v>
+        <v>2297969</v>
       </c>
       <c r="C18">
-        <v>1768777</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>BANTEN</v>
+        <v>2494000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2267990</v>
+        <v>2012610</v>
       </c>
       <c r="C19">
-        <v>2460997</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>BALI</v>
+        <v>2183883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2297969</v>
+        <v>1795000</v>
       </c>
       <c r="C20">
-        <v>2494000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>NUSA TENGGARA BARAT</v>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2012610</v>
+        <v>2211500</v>
       </c>
       <c r="C21">
-        <v>2183883</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>NUSA TENGGARA TIMUR</v>
+        <v>2399699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1795000</v>
+        <v>2663435</v>
       </c>
       <c r="C22">
-        <v>1950000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>KALIMANTAN BARAT</v>
+        <v>2903145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2211500</v>
+        <v>2651782</v>
       </c>
       <c r="C23">
-        <v>2399699</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>KALIMANTAN TENGAH</v>
+        <v>2877449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2663435</v>
+        <v>2747561</v>
       </c>
       <c r="C24">
-        <v>2903145</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>KALIMANTAN SELATAN</v>
+        <v>2981379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2651782</v>
+        <v>2765463</v>
       </c>
       <c r="C25">
-        <v>2877449</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>KALIMANTAN TIMUR</v>
+        <v>3000804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2747561</v>
+        <v>3051076</v>
       </c>
       <c r="C26">
-        <v>2981379</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>KALIMANTAN UTARA</v>
+        <v>3310723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2765463</v>
+        <v>2123040</v>
       </c>
       <c r="C27">
-        <v>3000804</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>SULAWESI UTARA</v>
+        <v>2303711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3051076</v>
+        <v>2860382</v>
       </c>
       <c r="C28">
-        <v>3310723</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>SULAWESI TENGAH</v>
+        <v>3103800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2123040</v>
+        <v>2351870</v>
       </c>
       <c r="C29">
-        <v>2303711</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>SULAWESI SELATAN</v>
+        <v>2552015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2860382</v>
+        <v>2384020</v>
       </c>
       <c r="C30">
-        <v>3103800</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>SULAWESI TENGGARA</v>
+        <v>2788826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2351870</v>
+        <v>2381000</v>
       </c>
       <c r="C31">
-        <v>2552015</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>GORONTALO</v>
+        <v>2678863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2384020</v>
+        <v>2400664</v>
       </c>
       <c r="C32">
-        <v>2788826</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>SULAWESI BARAT</v>
+        <v>2604961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2381000</v>
+        <v>2508091</v>
       </c>
       <c r="C33">
-        <v>2678863</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>MALUKU</v>
+        <v>2721530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2400664</v>
+        <v>2934500</v>
       </c>
       <c r="C34">
-        <v>2604961</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>MALUKU UTARA</v>
-      </c>
-      <c r="B35">
-        <v>2508091</v>
-      </c>
-      <c r="C35">
-        <v>2721530</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>PAPUA BARAT</v>
+        <v>3134600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>2934500</v>
+        <v>3240900</v>
       </c>
       <c r="C36">
-        <v>3134600</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>PAPUA BARAT DAYA</v>
-      </c>
-      <c r="B37" t="str">
-        <v>-</v>
-      </c>
-      <c r="C37" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>PAPUA</v>
-      </c>
-      <c r="B38">
-        <v>3240900</v>
-      </c>
-      <c r="C38">
         <v>3516700</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>PAPUA SELATAN</v>
-      </c>
-      <c r="B39" t="str">
-        <v>-</v>
-      </c>
-      <c r="C39" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>PAPUA TENGAH</v>
-      </c>
-      <c r="B40" t="str">
-        <v>-</v>
-      </c>
-      <c r="C40" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>PAPUA PEGUNUNGAN</v>
-      </c>
-      <c r="B41" t="str">
-        <v>-</v>
-      </c>
-      <c r="C41" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>INDONESIA</v>
-      </c>
-      <c r="B42">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
         <v>2455662</v>
       </c>
-      <c r="C42">
+      <c r="C40">
         <v>2672371</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError sqref="A2:C40 B1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/Upah Minimum Regional_Propinsi, 2019-2020.xlsx
+++ b/Data/Upah Minimum Regional_Propinsi, 2019-2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinr\Documents\Python_Project-3_Minimum Wage\Python_Project-3_Minimum-Wage\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2882D7-2858-4725-852D-5AC627A0B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C00D6-4DC5-4EF6-AA64-090028A29544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>38 Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>ACEH</t>
   </si>
@@ -143,6 +140,12 @@
   </si>
   <si>
     <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>UMP_2020</t>
   </si>
 </sst>
 </file>
@@ -520,461 +523,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>3165031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2916810</v>
-      </c>
-      <c r="C2">
-        <v>3165031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>2499423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2303403</v>
-      </c>
-      <c r="C3">
-        <v>2499423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>2484041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2289220</v>
-      </c>
-      <c r="C4">
-        <v>2484041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2888564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2662026</v>
-      </c>
-      <c r="C5">
-        <v>2888564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>2630162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2423889</v>
-      </c>
-      <c r="C6">
-        <v>2630162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>3043111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2804453</v>
-      </c>
-      <c r="C7">
-        <v>3043111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>2213604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2040407</v>
-      </c>
-      <c r="C8">
-        <v>2213604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2432002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2241270</v>
-      </c>
-      <c r="C9">
-        <v>2432002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>3230024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2976706</v>
-      </c>
-      <c r="C10">
-        <v>3230024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>3005460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>2769754</v>
-      </c>
-      <c r="C11">
-        <v>3005460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>4276350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>3940973</v>
-      </c>
-      <c r="C12">
-        <v>4276350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1810351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1668373</v>
-      </c>
-      <c r="C13">
-        <v>1810351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1742015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1605396</v>
-      </c>
-      <c r="C14">
-        <v>1742015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1704608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1570923</v>
-      </c>
-      <c r="C15">
-        <v>1704608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1768777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1630059</v>
-      </c>
-      <c r="C16">
-        <v>1768777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>2460997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>2267990</v>
-      </c>
-      <c r="C17">
-        <v>2460997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>2494000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2297969</v>
-      </c>
-      <c r="C18">
-        <v>2494000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>2183883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2012610</v>
-      </c>
-      <c r="C19">
-        <v>2183883</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1795000</v>
-      </c>
-      <c r="C20">
-        <v>1950000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>2399699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2211500</v>
-      </c>
-      <c r="C21">
-        <v>2399699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>2903145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>2663435</v>
-      </c>
-      <c r="C22">
-        <v>2903145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>2877449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>2651782</v>
-      </c>
-      <c r="C23">
-        <v>2877449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>2981379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2747561</v>
-      </c>
-      <c r="C24">
-        <v>2981379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>3000804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2765463</v>
-      </c>
-      <c r="C25">
-        <v>3000804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>3310723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>3051076</v>
-      </c>
-      <c r="C26">
-        <v>3310723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>2303711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>2123040</v>
-      </c>
-      <c r="C27">
-        <v>2303711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>3103800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>2860382</v>
-      </c>
-      <c r="C28">
-        <v>3103800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>2552015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>2351870</v>
-      </c>
-      <c r="C29">
-        <v>2552015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>2788826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>2384020</v>
-      </c>
-      <c r="C30">
-        <v>2788826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>2678863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2381000</v>
-      </c>
-      <c r="C31">
-        <v>2678863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>2604961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>2400664</v>
-      </c>
-      <c r="C32">
-        <v>2604961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>2721530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>2508091</v>
-      </c>
-      <c r="C33">
-        <v>2721530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>3134600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>2934500</v>
-      </c>
-      <c r="C34">
-        <v>3134600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>3516700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>3240900</v>
-      </c>
-      <c r="C36">
-        <v>3516700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
       <c r="B40">
-        <v>2455662</v>
-      </c>
-      <c r="C40">
         <v>2672371</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:C40 B1:C1" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B40 A2:A40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>